--- a/data/pca/factorExposure/factorExposure_2016-12-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01595993783677687</v>
+        <v>0.01437812098013879</v>
       </c>
       <c r="C2">
-        <v>-0.03977024444566868</v>
+        <v>-0.04070649616735634</v>
       </c>
       <c r="D2">
-        <v>-0.04246917116139497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06440167272333543</v>
+      </c>
+      <c r="E2">
+        <v>-0.03057127454508335</v>
+      </c>
+      <c r="F2">
+        <v>0.00974038886569552</v>
+      </c>
+      <c r="G2">
+        <v>0.09520320272537479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06452881637104767</v>
+        <v>0.03599250863177007</v>
       </c>
       <c r="C3">
-        <v>-0.09965610253850063</v>
+        <v>-0.0895504422452007</v>
       </c>
       <c r="D3">
-        <v>-0.01428447978599781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05519253044576766</v>
+      </c>
+      <c r="E3">
+        <v>-0.08585545396099481</v>
+      </c>
+      <c r="F3">
+        <v>0.02683995324916733</v>
+      </c>
+      <c r="G3">
+        <v>0.1094687595369602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0657884983652705</v>
+        <v>0.05618534828150449</v>
       </c>
       <c r="C4">
-        <v>-0.06018035076130544</v>
+        <v>-0.05959824827992081</v>
       </c>
       <c r="D4">
-        <v>-0.02717652020439141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.04992502265370394</v>
+      </c>
+      <c r="E4">
+        <v>-0.0370774537766753</v>
+      </c>
+      <c r="F4">
+        <v>0.005029767781831856</v>
+      </c>
+      <c r="G4">
+        <v>0.09398754900255127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02551315594190219</v>
+        <v>0.03440036991304746</v>
       </c>
       <c r="C6">
-        <v>-0.05401070164067383</v>
+        <v>-0.03996807073391598</v>
       </c>
       <c r="D6">
-        <v>-0.01502600867201104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03937437840084234</v>
+      </c>
+      <c r="E6">
+        <v>-0.05221252529498475</v>
+      </c>
+      <c r="F6">
+        <v>0.01075320143679856</v>
+      </c>
+      <c r="G6">
+        <v>0.08835469865220444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0194752888610195</v>
+        <v>0.02060525981637876</v>
       </c>
       <c r="C7">
-        <v>-0.0434747481243135</v>
+        <v>-0.03555333147049531</v>
       </c>
       <c r="D7">
-        <v>-0.01628426599573699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.02925573046959269</v>
+      </c>
+      <c r="E7">
+        <v>-0.01915461809425886</v>
+      </c>
+      <c r="F7">
+        <v>-0.003388877430334864</v>
+      </c>
+      <c r="G7">
+        <v>0.1239792060104191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001960848537180503</v>
+        <v>0.004840418184895164</v>
       </c>
       <c r="C8">
-        <v>-0.0104804870419794</v>
+        <v>-0.02011508807609127</v>
       </c>
       <c r="D8">
-        <v>-0.00394029337955517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.01900040838474204</v>
+      </c>
+      <c r="E8">
+        <v>-0.03153208483448422</v>
+      </c>
+      <c r="F8">
+        <v>0.005748295807612176</v>
+      </c>
+      <c r="G8">
+        <v>0.06877620551802675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02872819312924912</v>
+        <v>0.03491854060309077</v>
       </c>
       <c r="C9">
-        <v>-0.04143447412259752</v>
+        <v>-0.04524721125709466</v>
       </c>
       <c r="D9">
-        <v>-0.01890359830679043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03517336546065645</v>
+      </c>
+      <c r="E9">
+        <v>-0.0262313147017173</v>
+      </c>
+      <c r="F9">
+        <v>0.002906316923176921</v>
+      </c>
+      <c r="G9">
+        <v>0.09957668423882995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07291205621750875</v>
+        <v>0.09254688419035155</v>
       </c>
       <c r="C10">
-        <v>0.1954985828071227</v>
+        <v>0.1941149928921938</v>
       </c>
       <c r="D10">
-        <v>0.02755181822551259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0008506769257934304</v>
+      </c>
+      <c r="E10">
+        <v>-0.01507615026719643</v>
+      </c>
+      <c r="F10">
+        <v>0.02835739838556315</v>
+      </c>
+      <c r="G10">
+        <v>0.05223188783944521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04018665156174122</v>
+        <v>0.03624988546598387</v>
       </c>
       <c r="C11">
-        <v>-0.05251639030207723</v>
+        <v>-0.05107050423764856</v>
       </c>
       <c r="D11">
-        <v>-0.003593803121279725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.01447632434878947</v>
+      </c>
+      <c r="E11">
+        <v>-0.02390792735916339</v>
+      </c>
+      <c r="F11">
+        <v>-0.01430621155431195</v>
+      </c>
+      <c r="G11">
+        <v>0.07548448728590122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03664078782510009</v>
+        <v>0.03715106213812604</v>
       </c>
       <c r="C12">
-        <v>-0.04242565568987697</v>
+        <v>-0.04647131839644921</v>
       </c>
       <c r="D12">
-        <v>-0.006059316751742486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.01416278853429744</v>
+      </c>
+      <c r="E12">
+        <v>-0.01374515796353529</v>
+      </c>
+      <c r="F12">
+        <v>-0.005180175601845344</v>
+      </c>
+      <c r="G12">
+        <v>0.07524199784775973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.009865570588637341</v>
+        <v>0.01102074993309112</v>
       </c>
       <c r="C13">
-        <v>-0.03512110205481327</v>
+        <v>-0.03603798616477753</v>
       </c>
       <c r="D13">
-        <v>-0.01949930235614418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0478063012123483</v>
+      </c>
+      <c r="E13">
+        <v>-0.04835046190610286</v>
+      </c>
+      <c r="F13">
+        <v>0.01902935557588824</v>
+      </c>
+      <c r="G13">
+        <v>0.13569435082145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006549374175040342</v>
+        <v>0.008622945542567841</v>
       </c>
       <c r="C14">
-        <v>-0.02717361454000584</v>
+        <v>-0.02687419384580331</v>
       </c>
       <c r="D14">
-        <v>-0.01363012176619132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02593610218655795</v>
+      </c>
+      <c r="E14">
+        <v>-0.01353768978835867</v>
+      </c>
+      <c r="F14">
+        <v>0.004765490354191312</v>
+      </c>
+      <c r="G14">
+        <v>0.1141010648653803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03421651408733661</v>
+        <v>0.03502173291331603</v>
       </c>
       <c r="C16">
-        <v>-0.0393695920297982</v>
+        <v>-0.04412940853009169</v>
       </c>
       <c r="D16">
-        <v>-0.003472442259890791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.01452853366996653</v>
+      </c>
+      <c r="E16">
+        <v>-0.01918181401175974</v>
+      </c>
+      <c r="F16">
+        <v>0.002836013763859398</v>
+      </c>
+      <c r="G16">
+        <v>0.08144820431156669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03005790598362125</v>
+        <v>0.01762925656443931</v>
       </c>
       <c r="C19">
-        <v>-0.05524711380908173</v>
+        <v>-0.04708886669369878</v>
       </c>
       <c r="D19">
-        <v>-0.02333796084205357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.06667186822818753</v>
+      </c>
+      <c r="E19">
+        <v>-0.08188954067922657</v>
+      </c>
+      <c r="F19">
+        <v>0.01827521840523401</v>
+      </c>
+      <c r="G19">
+        <v>0.1336839990707631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01323072658177526</v>
+        <v>0.01598334192806712</v>
       </c>
       <c r="C20">
-        <v>-0.04208774236644278</v>
+        <v>-0.03648101702697771</v>
       </c>
       <c r="D20">
-        <v>-0.01733347174640006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03674519797650321</v>
+      </c>
+      <c r="E20">
+        <v>-0.034471110693422</v>
+      </c>
+      <c r="F20">
+        <v>0.02912225980436489</v>
+      </c>
+      <c r="G20">
+        <v>0.1073522919604821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.005517230109637819</v>
+        <v>0.006368768239075237</v>
       </c>
       <c r="C21">
-        <v>-0.03472066337838972</v>
+        <v>-0.03525942266567654</v>
       </c>
       <c r="D21">
-        <v>-0.02287222307943728</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05296678450867053</v>
+      </c>
+      <c r="E21">
+        <v>-0.04927636338922164</v>
+      </c>
+      <c r="F21">
+        <v>0.01887506268160664</v>
+      </c>
+      <c r="G21">
+        <v>0.1506362888294089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0024827017729902</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01270476418558849</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01160808903227748</v>
+      </c>
+      <c r="E22">
+        <v>-0.0221378125033448</v>
+      </c>
+      <c r="F22">
+        <v>-0.001126344518793869</v>
+      </c>
+      <c r="G22">
+        <v>0.01298873587034233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002493219898637646</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01267674191461447</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01153855393453625</v>
+      </c>
+      <c r="E23">
+        <v>-0.02196460509425959</v>
+      </c>
+      <c r="F23">
+        <v>-0.0008254237403943683</v>
+      </c>
+      <c r="G23">
+        <v>0.01282202011730782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02790795442994826</v>
+        <v>0.03085885733688598</v>
       </c>
       <c r="C24">
-        <v>-0.04658324734842044</v>
+        <v>-0.04973721627521326</v>
       </c>
       <c r="D24">
-        <v>-0.008928669338760331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.01802953857110767</v>
+      </c>
+      <c r="E24">
+        <v>-0.01661628875843878</v>
+      </c>
+      <c r="F24">
+        <v>-0.007124634665985721</v>
+      </c>
+      <c r="G24">
+        <v>0.08147058844218363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04770375453823419</v>
+        <v>0.04312924145049836</v>
       </c>
       <c r="C25">
-        <v>-0.05159833927175796</v>
+        <v>-0.05582986411919407</v>
       </c>
       <c r="D25">
-        <v>-0.01169440379443699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01888297674057198</v>
+      </c>
+      <c r="E25">
+        <v>-0.008690129438209892</v>
+      </c>
+      <c r="F25">
+        <v>-0.006745664330815941</v>
+      </c>
+      <c r="G25">
+        <v>0.08979796257122334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004413751680683376</v>
+        <v>0.01483706903327967</v>
       </c>
       <c r="C26">
-        <v>-0.009859538374777762</v>
+        <v>-0.009895867383950929</v>
       </c>
       <c r="D26">
-        <v>-0.02494365487483141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03287943378136869</v>
+      </c>
+      <c r="E26">
+        <v>-0.005159640641670761</v>
+      </c>
+      <c r="F26">
+        <v>0.003414916135295729</v>
+      </c>
+      <c r="G26">
+        <v>0.08314635693936209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.0879428055242422</v>
+        <v>0.124140356020707</v>
       </c>
       <c r="C28">
-        <v>0.2265462637911558</v>
+        <v>0.2460409268197553</v>
       </c>
       <c r="D28">
-        <v>0.02005529145844691</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0002508349931691709</v>
+      </c>
+      <c r="E28">
+        <v>0.004300152461990552</v>
+      </c>
+      <c r="F28">
+        <v>0.0299167499428495</v>
+      </c>
+      <c r="G28">
+        <v>0.05426723759731816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01203879649835098</v>
+        <v>0.007962263614404549</v>
       </c>
       <c r="C29">
-        <v>-0.01950312638614092</v>
+        <v>-0.02215030204006587</v>
       </c>
       <c r="D29">
-        <v>-0.009786458776344957</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01967701797817699</v>
+      </c>
+      <c r="E29">
+        <v>-0.006650434383132627</v>
+      </c>
+      <c r="F29">
+        <v>0.009152662090134737</v>
+      </c>
+      <c r="G29">
+        <v>0.1043192550185649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.039005510805328</v>
+        <v>0.03930476292576459</v>
       </c>
       <c r="C30">
-        <v>-0.07224047725797395</v>
+        <v>-0.06403617893915454</v>
       </c>
       <c r="D30">
-        <v>-0.03461384334273799</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06679463798003704</v>
+      </c>
+      <c r="E30">
+        <v>-0.06534864203963299</v>
+      </c>
+      <c r="F30">
+        <v>-0.02071449244796792</v>
+      </c>
+      <c r="G30">
+        <v>0.1152548658200648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04525982269842146</v>
+        <v>0.05635954038772998</v>
       </c>
       <c r="C31">
-        <v>-0.02387952030767735</v>
+        <v>-0.04067120374025329</v>
       </c>
       <c r="D31">
-        <v>-0.01342934504683907</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01760168341210947</v>
+      </c>
+      <c r="E31">
+        <v>0.008567229854616281</v>
+      </c>
+      <c r="F31">
+        <v>0.03190628771202691</v>
+      </c>
+      <c r="G31">
+        <v>0.09462176133960978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007658749716318094</v>
+        <v>0.001581696348669054</v>
       </c>
       <c r="C32">
-        <v>-0.03644337915155067</v>
+        <v>-0.02408601322823248</v>
       </c>
       <c r="D32">
-        <v>0.003683331087108653</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01601233103096923</v>
+      </c>
+      <c r="E32">
+        <v>-0.04385396777734405</v>
+      </c>
+      <c r="F32">
+        <v>-0.01076884824799679</v>
+      </c>
+      <c r="G32">
+        <v>0.07859406838692409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03056574552555896</v>
+        <v>0.02665982786976126</v>
       </c>
       <c r="C33">
-        <v>-0.05345225602983342</v>
+        <v>-0.04618799100703554</v>
       </c>
       <c r="D33">
-        <v>-0.02135219631722473</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05124532200487213</v>
+      </c>
+      <c r="E33">
+        <v>-0.05407769783647307</v>
+      </c>
+      <c r="F33">
+        <v>0.0009578076663401681</v>
+      </c>
+      <c r="G33">
+        <v>0.1569844184947937</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05356555432086502</v>
+        <v>0.04231066916878253</v>
       </c>
       <c r="C34">
-        <v>-0.05059810839441536</v>
+        <v>-0.06035807762836651</v>
       </c>
       <c r="D34">
-        <v>0.002252931684978195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.008404807288110125</v>
+      </c>
+      <c r="E34">
+        <v>-0.01999286012950704</v>
+      </c>
+      <c r="F34">
+        <v>-0.02007811677061059</v>
+      </c>
+      <c r="G34">
+        <v>0.07858540731420689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008222876677566739</v>
+        <v>0.01546104760718576</v>
       </c>
       <c r="C36">
-        <v>-0.004342470621158859</v>
+        <v>-0.00610008148338355</v>
       </c>
       <c r="D36">
-        <v>-0.01320565705536211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02526250789102701</v>
+      </c>
+      <c r="E36">
+        <v>-0.0117513689991704</v>
+      </c>
+      <c r="F36">
+        <v>0.008148688893188981</v>
+      </c>
+      <c r="G36">
+        <v>0.09650550345534528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03555909929337472</v>
+        <v>0.03120164410640025</v>
       </c>
       <c r="C38">
-        <v>-0.02048910122973051</v>
+        <v>-0.02283472642745784</v>
       </c>
       <c r="D38">
-        <v>0.001135439711857889</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01186661901889384</v>
+      </c>
+      <c r="E38">
+        <v>-0.016262181371916</v>
+      </c>
+      <c r="F38">
+        <v>0.01301150216676208</v>
+      </c>
+      <c r="G38">
+        <v>0.09057626162371123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03783146182516289</v>
+        <v>0.03686163574443674</v>
       </c>
       <c r="C39">
-        <v>-0.08373718754998186</v>
+        <v>-0.0751983417542961</v>
       </c>
       <c r="D39">
-        <v>-0.01351854579490259</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0289081760958515</v>
+      </c>
+      <c r="E39">
+        <v>-0.03662323242511437</v>
+      </c>
+      <c r="F39">
+        <v>-0.01625064489718317</v>
+      </c>
+      <c r="G39">
+        <v>0.09054320662973518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01673811620361866</v>
+        <v>0.01646615302055821</v>
       </c>
       <c r="C40">
-        <v>-0.02510696116888093</v>
+        <v>-0.03482295516426271</v>
       </c>
       <c r="D40">
-        <v>-0.01334757959187411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03151975534732152</v>
+      </c>
+      <c r="E40">
+        <v>-0.02354372966148068</v>
+      </c>
+      <c r="F40">
+        <v>0.02865463437599198</v>
+      </c>
+      <c r="G40">
+        <v>0.1198439441972375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0104408243975409</v>
+        <v>0.01859113710005966</v>
       </c>
       <c r="C41">
-        <v>0.002141254334670672</v>
+        <v>0.001992582126580281</v>
       </c>
       <c r="D41">
-        <v>-0.007869599436286545</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01919794326900458</v>
+      </c>
+      <c r="E41">
+        <v>-0.009498402372651886</v>
+      </c>
+      <c r="F41">
+        <v>0.01395450540325655</v>
+      </c>
+      <c r="G41">
+        <v>0.08890785362375364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.01181098072579742</v>
+        <v>0.005402176342070145</v>
       </c>
       <c r="C42">
-        <v>-0.03680089010761702</v>
+        <v>-0.02412240707898235</v>
       </c>
       <c r="D42">
-        <v>-0.1014244746937509</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08354363814957867</v>
+      </c>
+      <c r="E42">
+        <v>0.04626041991078345</v>
+      </c>
+      <c r="F42">
+        <v>0.02164142420675426</v>
+      </c>
+      <c r="G42">
+        <v>-0.03510053223680622</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02986850602233599</v>
+        <v>0.03320913226282278</v>
       </c>
       <c r="C43">
-        <v>-0.007853479657057773</v>
+        <v>-0.01084985785867205</v>
       </c>
       <c r="D43">
-        <v>-0.004906927231865059</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02515622333898638</v>
+      </c>
+      <c r="E43">
+        <v>-0.02709875482176537</v>
+      </c>
+      <c r="F43">
+        <v>0.01226763693895083</v>
+      </c>
+      <c r="G43">
+        <v>0.1171739303836475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02139785118167535</v>
+        <v>0.01477902654873335</v>
       </c>
       <c r="C44">
-        <v>-0.05332862158678236</v>
+        <v>-0.05149557103832303</v>
       </c>
       <c r="D44">
-        <v>-0.01306767120504506</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03164476260403046</v>
+      </c>
+      <c r="E44">
+        <v>-0.03088423939216181</v>
+      </c>
+      <c r="F44">
+        <v>0.01953275933681628</v>
+      </c>
+      <c r="G44">
+        <v>0.1180902637893127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0008490574630434696</v>
+        <v>0.01013525702083553</v>
       </c>
       <c r="C46">
-        <v>-0.01070211717628493</v>
+        <v>-0.01678687048098682</v>
       </c>
       <c r="D46">
-        <v>-0.01601789321411359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02273662878125202</v>
+      </c>
+      <c r="E46">
+        <v>0.003122422713596991</v>
+      </c>
+      <c r="F46">
+        <v>0.01389718109867137</v>
+      </c>
+      <c r="G46">
+        <v>0.1118941610513586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07735833292470262</v>
+        <v>0.08546788142033321</v>
       </c>
       <c r="C47">
-        <v>-0.06227111064791706</v>
+        <v>-0.07124327058614323</v>
       </c>
       <c r="D47">
-        <v>-0.002649532028051395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.001223643193591198</v>
+      </c>
+      <c r="E47">
+        <v>0.01116806365071334</v>
+      </c>
+      <c r="F47">
+        <v>0.04180950810739632</v>
+      </c>
+      <c r="G47">
+        <v>0.08973869749844292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01242221329702447</v>
+        <v>0.01740326896258794</v>
       </c>
       <c r="C48">
-        <v>-0.01023937359704775</v>
+        <v>-0.01242039176249768</v>
       </c>
       <c r="D48">
-        <v>-0.00200141967824399</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01348106810236178</v>
+      </c>
+      <c r="E48">
+        <v>-0.009921731292505188</v>
+      </c>
+      <c r="F48">
+        <v>0.02058619895391596</v>
+      </c>
+      <c r="G48">
+        <v>0.1098943761419102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08235310927684439</v>
+        <v>0.07869764631307584</v>
       </c>
       <c r="C50">
-        <v>-0.05681252946949666</v>
+        <v>-0.06759351815156045</v>
       </c>
       <c r="D50">
-        <v>-0.00676451804311251</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01128494703838108</v>
+      </c>
+      <c r="E50">
+        <v>0.008346798347487687</v>
+      </c>
+      <c r="F50">
+        <v>0.03990834193896711</v>
+      </c>
+      <c r="G50">
+        <v>0.1002688368015248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01892245390217394</v>
+        <v>0.01207660778698575</v>
       </c>
       <c r="C51">
-        <v>-0.03825784000094413</v>
+        <v>-0.03147906526407159</v>
       </c>
       <c r="D51">
-        <v>-0.01343784875205759</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.03151644951647008</v>
+      </c>
+      <c r="E51">
+        <v>-0.03132538930713778</v>
+      </c>
+      <c r="F51">
+        <v>-0.009474048342711832</v>
+      </c>
+      <c r="G51">
+        <v>0.1045573454225513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1036626531716404</v>
+        <v>0.08713875063397165</v>
       </c>
       <c r="C53">
-        <v>-0.06899864022659109</v>
+        <v>-0.08521759796610862</v>
       </c>
       <c r="D53">
-        <v>0.002964563461352842</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.008177161164286628</v>
+      </c>
+      <c r="E53">
+        <v>0.02946604308098092</v>
+      </c>
+      <c r="F53">
+        <v>0.04505266654869985</v>
+      </c>
+      <c r="G53">
+        <v>0.09435500530754369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02796699321911138</v>
+        <v>0.03163672692332435</v>
       </c>
       <c r="C54">
-        <v>-0.001300467275881479</v>
+        <v>-0.0171631459300173</v>
       </c>
       <c r="D54">
-        <v>0.001332439353212351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01697325118186491</v>
+      </c>
+      <c r="E54">
+        <v>-0.02298363348833744</v>
+      </c>
+      <c r="F54">
+        <v>0.01240392065486482</v>
+      </c>
+      <c r="G54">
+        <v>0.1148264995186724</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07937511712862436</v>
+        <v>0.08171526846489496</v>
       </c>
       <c r="C55">
-        <v>-0.05974108101919635</v>
+        <v>-0.06903306522520009</v>
       </c>
       <c r="D55">
-        <v>-0.002686494176168233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008062253797117678</v>
+      </c>
+      <c r="E55">
+        <v>0.034420615480341</v>
+      </c>
+      <c r="F55">
+        <v>0.04500621482511896</v>
+      </c>
+      <c r="G55">
+        <v>0.06922871993311307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1577933674222738</v>
+        <v>0.1436778886203817</v>
       </c>
       <c r="C56">
-        <v>-0.08607027604930216</v>
+        <v>-0.1042004246879273</v>
       </c>
       <c r="D56">
-        <v>0.009022348067016878</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0191820377962645</v>
+      </c>
+      <c r="E56">
+        <v>0.03728400014769005</v>
+      </c>
+      <c r="F56">
+        <v>0.05660240195825757</v>
+      </c>
+      <c r="G56">
+        <v>0.05801467530082225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.009152963453575514</v>
+        <v>0.003672110292577725</v>
       </c>
       <c r="C57">
-        <v>-0.004306134737731872</v>
+        <v>-0.003047257880767278</v>
       </c>
       <c r="D57">
-        <v>-0.02659397581079091</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.0334720883649886</v>
+      </c>
+      <c r="E57">
+        <v>-0.01303377120892567</v>
+      </c>
+      <c r="F57">
+        <v>0.001104978900666167</v>
+      </c>
+      <c r="G57">
+        <v>0.008779352961187667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0504562183243376</v>
+        <v>0.03792397762535592</v>
       </c>
       <c r="C58">
-        <v>-0.05532255623937048</v>
+        <v>-0.02998012231319301</v>
       </c>
       <c r="D58">
-        <v>-0.03803690383046626</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.308210533345988</v>
+      </c>
+      <c r="E58">
+        <v>-0.6315091220536774</v>
+      </c>
+      <c r="F58">
+        <v>0.6110955798402922</v>
+      </c>
+      <c r="G58">
+        <v>-0.2965358633312387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1372725148025879</v>
+        <v>0.1478491698000588</v>
       </c>
       <c r="C59">
-        <v>0.2263049227357226</v>
+        <v>0.205778188625677</v>
       </c>
       <c r="D59">
-        <v>0.03267392072335774</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.00307007226189453</v>
+      </c>
+      <c r="E59">
+        <v>-0.02150633944816495</v>
+      </c>
+      <c r="F59">
+        <v>0.01423008477740251</v>
+      </c>
+      <c r="G59">
+        <v>0.03949091303002494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3106760484177841</v>
+        <v>0.2862175411099421</v>
       </c>
       <c r="C60">
-        <v>-0.07798196926041903</v>
+        <v>-0.09192253860117788</v>
       </c>
       <c r="D60">
-        <v>0.02422751182586239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.02385890204779826</v>
+      </c>
+      <c r="E60">
+        <v>-0.1474812144231538</v>
+      </c>
+      <c r="F60">
+        <v>-0.2961058428360591</v>
+      </c>
+      <c r="G60">
+        <v>-0.1556005720175354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03417477960949877</v>
+        <v>0.03907066025794649</v>
       </c>
       <c r="C61">
-        <v>-0.06202253149549513</v>
+        <v>-0.06234810415342865</v>
       </c>
       <c r="D61">
-        <v>-0.008594634036265227</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.023988347924665</v>
+      </c>
+      <c r="E61">
+        <v>-0.03258172968762722</v>
+      </c>
+      <c r="F61">
+        <v>-0.006788745724582169</v>
+      </c>
+      <c r="G61">
+        <v>0.08936499374444762</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01395901947577715</v>
+        <v>0.01527893037131909</v>
       </c>
       <c r="C63">
-        <v>-0.02736397813167881</v>
+        <v>-0.02650330054656568</v>
       </c>
       <c r="D63">
-        <v>-0.01080473692646495</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01827261937674609</v>
+      </c>
+      <c r="E63">
+        <v>-0.006757825779164278</v>
+      </c>
+      <c r="F63">
+        <v>0.01093686012874314</v>
+      </c>
+      <c r="G63">
+        <v>0.09135981513174359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04624674917261313</v>
+        <v>0.05191453262227951</v>
       </c>
       <c r="C64">
-        <v>-0.02879639212895658</v>
+        <v>-0.04723668627628824</v>
       </c>
       <c r="D64">
-        <v>-0.003631800277599169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01061418600596015</v>
+      </c>
+      <c r="E64">
+        <v>-0.003986127430139887</v>
+      </c>
+      <c r="F64">
+        <v>-0.004217151423525345</v>
+      </c>
+      <c r="G64">
+        <v>0.09452754180713446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08452072906080926</v>
+        <v>0.07121339405426559</v>
       </c>
       <c r="C65">
-        <v>-0.06281577678162645</v>
+        <v>-0.04574424058652782</v>
       </c>
       <c r="D65">
-        <v>-0.01073927027819158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03743759199827165</v>
+      </c>
+      <c r="E65">
+        <v>-0.0572925413769194</v>
+      </c>
+      <c r="F65">
+        <v>-0.00684559467424246</v>
+      </c>
+      <c r="G65">
+        <v>0.04094215335549636</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05972949576039109</v>
+        <v>0.0491309025913069</v>
       </c>
       <c r="C66">
-        <v>-0.1223615376835686</v>
+        <v>-0.09994787945149537</v>
       </c>
       <c r="D66">
-        <v>-0.01270161502275883</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.03516274405552416</v>
+      </c>
+      <c r="E66">
+        <v>-0.06028926812882505</v>
+      </c>
+      <c r="F66">
+        <v>-0.02073216365211787</v>
+      </c>
+      <c r="G66">
+        <v>0.09599069301660634</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06305155325535694</v>
+        <v>0.05383747408002466</v>
       </c>
       <c r="C67">
-        <v>-0.02197909985213672</v>
+        <v>-0.02839047864080503</v>
       </c>
       <c r="D67">
-        <v>-7.858307665721232e-05</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.007474174822555166</v>
+      </c>
+      <c r="E67">
+        <v>-0.00307027573457311</v>
+      </c>
+      <c r="F67">
+        <v>0.007995769745408539</v>
+      </c>
+      <c r="G67">
+        <v>0.07618775817912408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1032609112655956</v>
+        <v>0.1508608603955303</v>
       </c>
       <c r="C68">
-        <v>0.2863684507462813</v>
+        <v>0.2687226985828914</v>
       </c>
       <c r="D68">
-        <v>0.01444732106638316</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.009486996723713576</v>
+      </c>
+      <c r="E68">
+        <v>0.01406517935038334</v>
+      </c>
+      <c r="F68">
+        <v>0.04232695476052106</v>
+      </c>
+      <c r="G68">
+        <v>0.02521237517181421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08517464479544026</v>
+        <v>0.08480143738678687</v>
       </c>
       <c r="C69">
-        <v>-0.05659753594609472</v>
+        <v>-0.07407733475669383</v>
       </c>
       <c r="D69">
-        <v>-9.237206690972044e-05</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.001123838876420297</v>
+      </c>
+      <c r="E69">
+        <v>0.01586318955725371</v>
+      </c>
+      <c r="F69">
+        <v>0.01667866223416833</v>
+      </c>
+      <c r="G69">
+        <v>0.09878707960880034</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1109466154328697</v>
+        <v>0.13838941643403</v>
       </c>
       <c r="C71">
-        <v>0.2355427301870517</v>
+        <v>0.2363954414670806</v>
       </c>
       <c r="D71">
-        <v>0.01933004981265347</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01413331864648834</v>
+      </c>
+      <c r="E71">
+        <v>-0.01665682474450937</v>
+      </c>
+      <c r="F71">
+        <v>0.03809374541421717</v>
+      </c>
+      <c r="G71">
+        <v>0.06701754265091109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07353779315519186</v>
+        <v>0.08686263381815743</v>
       </c>
       <c r="C72">
-        <v>-0.06039631920699744</v>
+        <v>-0.05945857423380337</v>
       </c>
       <c r="D72">
-        <v>-0.008043209483210741</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01175894569861141</v>
+      </c>
+      <c r="E72">
+        <v>-0.00258893670312638</v>
+      </c>
+      <c r="F72">
+        <v>-0.02673000900473462</v>
+      </c>
+      <c r="G72">
+        <v>0.08084317823502822</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4384467187350605</v>
+        <v>0.3726539348681273</v>
       </c>
       <c r="C73">
-        <v>-0.08636237002860517</v>
+        <v>-0.08267465896443715</v>
       </c>
       <c r="D73">
-        <v>0.02196780547488301</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.08094414840528917</v>
+      </c>
+      <c r="E73">
+        <v>-0.2969612713943854</v>
+      </c>
+      <c r="F73">
+        <v>-0.516109489108809</v>
+      </c>
+      <c r="G73">
+        <v>-0.3274821851712943</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1218227953240573</v>
+        <v>0.1098669196324593</v>
       </c>
       <c r="C74">
-        <v>-0.1114552524492743</v>
+        <v>-0.1022234353443751</v>
       </c>
       <c r="D74">
-        <v>-0.004443262986798851</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0007244220550976308</v>
+      </c>
+      <c r="E74">
+        <v>0.01742045361699228</v>
+      </c>
+      <c r="F74">
+        <v>0.05734031779155365</v>
+      </c>
+      <c r="G74">
+        <v>0.07314611276937685</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2733400744984387</v>
+        <v>0.254625450654036</v>
       </c>
       <c r="C75">
-        <v>-0.1191640426038781</v>
+        <v>-0.1432797582398372</v>
       </c>
       <c r="D75">
-        <v>0.02611731333066091</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.05917655224089956</v>
+      </c>
+      <c r="E75">
+        <v>0.09071179464403741</v>
+      </c>
+      <c r="F75">
+        <v>0.1285288332912815</v>
+      </c>
+      <c r="G75">
+        <v>0.02952071612290404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1263311914164467</v>
+        <v>0.1238749370997562</v>
       </c>
       <c r="C76">
-        <v>-0.1002338100011779</v>
+        <v>-0.1046782123966694</v>
       </c>
       <c r="D76">
-        <v>0.009677869550185647</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02364733720889733</v>
+      </c>
+      <c r="E76">
+        <v>0.03960679293138203</v>
+      </c>
+      <c r="F76">
+        <v>0.07831143707991603</v>
+      </c>
+      <c r="G76">
+        <v>0.07004900602446727</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.06270672314871369</v>
+        <v>0.06687075130275599</v>
       </c>
       <c r="C77">
-        <v>-0.05881690387685914</v>
+        <v>-0.06121681070549331</v>
       </c>
       <c r="D77">
-        <v>-0.01045570984457552</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03409898780124387</v>
+      </c>
+      <c r="E77">
+        <v>-0.04436271611240555</v>
+      </c>
+      <c r="F77">
+        <v>0.03470927086508268</v>
+      </c>
+      <c r="G77">
+        <v>0.1050484384718551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04909123263578086</v>
+        <v>0.04172421993544644</v>
       </c>
       <c r="C78">
-        <v>-0.05047461457518812</v>
+        <v>-0.05525914279555329</v>
       </c>
       <c r="D78">
-        <v>-0.004110976998530842</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.02875994639692719</v>
+      </c>
+      <c r="E78">
+        <v>-0.05052705725222614</v>
+      </c>
+      <c r="F78">
+        <v>-0.02396867767854336</v>
+      </c>
+      <c r="G78">
+        <v>0.09786171745974197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0004162786710844361</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0001649903310315815</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.003850585009868665</v>
+      </c>
+      <c r="E79">
+        <v>-0.006556093012953635</v>
+      </c>
+      <c r="F79">
+        <v>0.002562198984750355</v>
+      </c>
+      <c r="G79">
+        <v>0.00921941453854648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.05675211990631775</v>
+        <v>0.04050308103509635</v>
       </c>
       <c r="C80">
-        <v>-0.05862398034260873</v>
+        <v>-0.04623848634627386</v>
       </c>
       <c r="D80">
-        <v>-0.02648398958410203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0411844716575436</v>
+      </c>
+      <c r="E80">
+        <v>-0.02587736367744263</v>
+      </c>
+      <c r="F80">
+        <v>4.378810073758312e-05</v>
+      </c>
+      <c r="G80">
+        <v>0.03758701308447049</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1444994488769756</v>
+        <v>0.1402747141271506</v>
       </c>
       <c r="C81">
-        <v>-0.07312887374521763</v>
+        <v>-0.09288059896751676</v>
       </c>
       <c r="D81">
-        <v>0.008544543428439313</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02979906602108612</v>
+      </c>
+      <c r="E81">
+        <v>0.06697385558099853</v>
+      </c>
+      <c r="F81">
+        <v>0.1037763642663947</v>
+      </c>
+      <c r="G81">
+        <v>0.04255508217886043</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.05632439977125155</v>
+        <v>0.1735030601544406</v>
       </c>
       <c r="C82">
-        <v>-0.03762908203862834</v>
+        <v>-0.1263682266216132</v>
       </c>
       <c r="D82">
-        <v>0.001627847307255712</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.07828149884410708</v>
+      </c>
+      <c r="E82">
+        <v>0.1722953060100663</v>
+      </c>
+      <c r="F82">
+        <v>0.0498601063300055</v>
+      </c>
+      <c r="G82">
+        <v>0.02909494349558778</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02896239899368711</v>
+        <v>0.02796337529597179</v>
       </c>
       <c r="C83">
-        <v>-0.01840480364627513</v>
+        <v>-0.03242597171623011</v>
       </c>
       <c r="D83">
-        <v>-0.009288653086229068</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02439063927547495</v>
+      </c>
+      <c r="E83">
+        <v>-0.02548049932337259</v>
+      </c>
+      <c r="F83">
+        <v>-0.009279891386703083</v>
+      </c>
+      <c r="G83">
+        <v>0.05605442292635789</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2537250229830884</v>
+        <v>0.2131876314137534</v>
       </c>
       <c r="C85">
-        <v>-0.1195286068848036</v>
+        <v>-0.1265547750824644</v>
       </c>
       <c r="D85">
-        <v>0.0177332052826463</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05349121531582757</v>
+      </c>
+      <c r="E85">
+        <v>0.09510470392961369</v>
+      </c>
+      <c r="F85">
+        <v>0.05421531759236289</v>
+      </c>
+      <c r="G85">
+        <v>-0.01338334720685875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01024841336917419</v>
+        <v>0.01129514748129489</v>
       </c>
       <c r="C86">
-        <v>-0.02097567745624521</v>
+        <v>-0.02407595103649824</v>
       </c>
       <c r="D86">
-        <v>-0.02137210777337942</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05478759792138875</v>
+      </c>
+      <c r="E86">
+        <v>-0.05904438253100087</v>
+      </c>
+      <c r="F86">
+        <v>-0.01339959643973266</v>
+      </c>
+      <c r="G86">
+        <v>0.1660795910434432</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01407430360389853</v>
+        <v>0.02023775130929395</v>
       </c>
       <c r="C87">
-        <v>-0.02141739102329369</v>
+        <v>-0.01544371008363145</v>
       </c>
       <c r="D87">
-        <v>-0.0143836120935234</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.05414402499831075</v>
+      </c>
+      <c r="E87">
+        <v>-0.08305395443824987</v>
+      </c>
+      <c r="F87">
+        <v>0.03597208690405532</v>
+      </c>
+      <c r="G87">
+        <v>0.1087715409479772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09907874201094817</v>
+        <v>0.08942349910080594</v>
       </c>
       <c r="C88">
-        <v>-0.05790243830472968</v>
+        <v>-0.06071968786338793</v>
       </c>
       <c r="D88">
-        <v>-0.03469868779738695</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04042297523990537</v>
+      </c>
+      <c r="E88">
+        <v>0.007686814422210008</v>
+      </c>
+      <c r="F88">
+        <v>0.01025197906440605</v>
+      </c>
+      <c r="G88">
+        <v>0.09437909529571863</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1897471519229605</v>
+        <v>0.213667434689621</v>
       </c>
       <c r="C89">
-        <v>0.3862904079798428</v>
+        <v>0.3720543412614865</v>
       </c>
       <c r="D89">
-        <v>0.02815792364131216</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.003483159112473882</v>
+      </c>
+      <c r="E89">
+        <v>0.03054223615250517</v>
+      </c>
+      <c r="F89">
+        <v>0.008226886075270431</v>
+      </c>
+      <c r="G89">
+        <v>0.08089425457497518</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.166726359724211</v>
+        <v>0.2003276801532903</v>
       </c>
       <c r="C90">
-        <v>0.3500003487110304</v>
+        <v>0.3221792169879646</v>
       </c>
       <c r="D90">
-        <v>0.04865833076442996</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.016375029633565</v>
+      </c>
+      <c r="E90">
+        <v>0.01136660153594854</v>
+      </c>
+      <c r="F90">
+        <v>0.05503337458348261</v>
+      </c>
+      <c r="G90">
+        <v>0.05852809732783665</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2111410542636815</v>
+        <v>0.1903037618203978</v>
       </c>
       <c r="C91">
-        <v>-0.1077790634177345</v>
+        <v>-0.1312645173855649</v>
       </c>
       <c r="D91">
-        <v>0.01737994599489519</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.04305895145192991</v>
+      </c>
+      <c r="E91">
+        <v>0.07769265790013269</v>
+      </c>
+      <c r="F91">
+        <v>0.1005140547781162</v>
+      </c>
+      <c r="G91">
+        <v>0.04795251515897576</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.173454312145369</v>
+        <v>0.1810493098794037</v>
       </c>
       <c r="C92">
-        <v>0.2764495777207264</v>
+        <v>0.2743867449509076</v>
       </c>
       <c r="D92">
-        <v>0.06604404279106783</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02770994962580265</v>
+      </c>
+      <c r="E92">
+        <v>-0.01827618975092622</v>
+      </c>
+      <c r="F92">
+        <v>0.07371999400918008</v>
+      </c>
+      <c r="G92">
+        <v>0.08237392207767166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1832139757800919</v>
+        <v>0.2223245101950673</v>
       </c>
       <c r="C93">
-        <v>0.3311255146190656</v>
+        <v>0.3192962591143335</v>
       </c>
       <c r="D93">
-        <v>0.04154643189958393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.006573016252675159</v>
+      </c>
+      <c r="E93">
+        <v>-0.002135594077564598</v>
+      </c>
+      <c r="F93">
+        <v>0.03758676825102204</v>
+      </c>
+      <c r="G93">
+        <v>0.05822011087809813</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2829941879546749</v>
+        <v>0.3383269328898378</v>
       </c>
       <c r="C94">
-        <v>-0.1258876578144649</v>
+        <v>-0.1924885502859972</v>
       </c>
       <c r="D94">
-        <v>0.01669639773057946</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.1611544899609284</v>
+      </c>
+      <c r="E94">
+        <v>0.3648395923318969</v>
+      </c>
+      <c r="F94">
+        <v>0.3454049921860066</v>
+      </c>
+      <c r="G94">
+        <v>-0.3902466160876199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.07050713758037494</v>
+        <v>0.08089349433617779</v>
       </c>
       <c r="C95">
-        <v>-0.0862207606473173</v>
+        <v>-0.08625732621637086</v>
       </c>
       <c r="D95">
-        <v>-0.01471147728500643</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.05858088573812507</v>
+      </c>
+      <c r="E95">
+        <v>-0.1258661132279766</v>
+      </c>
+      <c r="F95">
+        <v>-0.1536825512508042</v>
+      </c>
+      <c r="G95">
+        <v>0.04011729009763446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2074061501042682</v>
+        <v>0.1948428411938604</v>
       </c>
       <c r="C98">
-        <v>-0.03782806716967187</v>
+        <v>-0.04390558425345565</v>
       </c>
       <c r="D98">
-        <v>0.03039723502292049</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.02085496358150737</v>
+      </c>
+      <c r="E98">
+        <v>-0.1419479703898431</v>
+      </c>
+      <c r="F98">
+        <v>-0.1833406358526263</v>
+      </c>
+      <c r="G98">
+        <v>-0.05744004887738608</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01187342166462663</v>
+        <v>0.0078110262703964</v>
       </c>
       <c r="C101">
-        <v>-0.01982012354001679</v>
+        <v>-0.02205580499156483</v>
       </c>
       <c r="D101">
-        <v>-0.009626177646714423</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01931654564380294</v>
+      </c>
+      <c r="E101">
+        <v>-0.006218411464184655</v>
+      </c>
+      <c r="F101">
+        <v>0.009911158983194886</v>
+      </c>
+      <c r="G101">
+        <v>0.1039549304979447</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1284874224057803</v>
+        <v>0.1228992205398414</v>
       </c>
       <c r="C102">
-        <v>-0.0688345597491634</v>
+        <v>-0.09555109406762559</v>
       </c>
       <c r="D102">
-        <v>-0.003513699157102316</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.01526865306225171</v>
+      </c>
+      <c r="E102">
+        <v>0.05077653968340554</v>
+      </c>
+      <c r="F102">
+        <v>0.01650222251673959</v>
+      </c>
+      <c r="G102">
+        <v>0.01616029752007287</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.0662533041950151</v>
+        <v>0.01932730516511222</v>
       </c>
       <c r="C104">
-        <v>0.1089118130559103</v>
+        <v>0.03052348682454668</v>
       </c>
       <c r="D104">
-        <v>-0.9789336987416171</v>
+        <v>-0.8849892550336627</v>
+      </c>
+      <c r="E104">
+        <v>0.4265162752565433</v>
+      </c>
+      <c r="F104">
+        <v>-0.06167145033050773</v>
+      </c>
+      <c r="G104">
+        <v>-0.09804379077868076</v>
       </c>
     </row>
   </sheetData>
